--- a/pre/shok/slimjet/pl/Преленд 4. Шок-конетент. Slimjet PL.xlsx
+++ b/pre/shok/slimjet/pl/Преленд 4. Шок-конетент. Slimjet PL.xlsx
@@ -197,7 +197,15 @@
     <t>Po co brać kapsułki</t>
   </si>
   <si>
-    <t>ci, którzy chodzą na siłownię? W końcu mają już dość dużą aktywność fizyczną.</t>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>tym</t>
+    </r>
+    <r>
+      <t>, którzy chodzą na siłownię? W końcu mają już dość dużą aktywność fizyczną</t>
+    </r>
   </si>
   <si>
     <t>Nie zawsze przy pomocy ćwiczeń fizycznych można było pozbawić się problematycznych obszarów, powiedzmy, usunąć fałdy na brzuchu lub dodatkowe kilogramy na biodrach. A przy stosowaniu</t>
@@ -738,7 +746,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -750,6 +758,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -1303,7 +1314,7 @@
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="5" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1633,2608 +1644,2608 @@
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="5"/>
+      <c r="A131" s="6"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="5"/>
+      <c r="A132" s="6"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="5"/>
+      <c r="A133" s="6"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="5"/>
+      <c r="A134" s="6"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="5"/>
+      <c r="A135" s="6"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="5"/>
+      <c r="A136" s="6"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="5"/>
+      <c r="A137" s="6"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="5"/>
+      <c r="A138" s="6"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="5"/>
+      <c r="A139" s="6"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="5"/>
+      <c r="A140" s="6"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="5"/>
+      <c r="A141" s="6"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="5"/>
+      <c r="A142" s="6"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="5"/>
+      <c r="A143" s="6"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="5"/>
+      <c r="A144" s="6"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="5"/>
+      <c r="A145" s="6"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="5"/>
+      <c r="A146" s="6"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="5"/>
+      <c r="A147" s="6"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="5"/>
+      <c r="A148" s="6"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="5"/>
+      <c r="A149" s="6"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="5"/>
+      <c r="A150" s="6"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="5"/>
+      <c r="A151" s="6"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="5"/>
+      <c r="A152" s="6"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="5"/>
+      <c r="A153" s="6"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="5"/>
+      <c r="A154" s="6"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="5"/>
+      <c r="A155" s="6"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="5"/>
+      <c r="A156" s="6"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="5"/>
+      <c r="A157" s="6"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="5"/>
+      <c r="A158" s="6"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="5"/>
+      <c r="A159" s="6"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="5"/>
+      <c r="A160" s="6"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="5"/>
+      <c r="A161" s="6"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="5"/>
+      <c r="A162" s="6"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="5"/>
+      <c r="A163" s="6"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="5"/>
+      <c r="A164" s="6"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="5"/>
+      <c r="A165" s="6"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="5"/>
+      <c r="A166" s="6"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="5"/>
+      <c r="A167" s="6"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="5"/>
+      <c r="A168" s="6"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="5"/>
+      <c r="A169" s="6"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="5"/>
+      <c r="A170" s="6"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="5"/>
+      <c r="A171" s="6"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="5"/>
+      <c r="A172" s="6"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="5"/>
+      <c r="A173" s="6"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="5"/>
+      <c r="A174" s="6"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="5"/>
+      <c r="A175" s="6"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="5"/>
+      <c r="A176" s="6"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="5"/>
+      <c r="A177" s="6"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="5"/>
+      <c r="A178" s="6"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="5"/>
+      <c r="A179" s="6"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="5"/>
+      <c r="A180" s="6"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="5"/>
+      <c r="A181" s="6"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="5"/>
+      <c r="A182" s="6"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="5"/>
+      <c r="A183" s="6"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="5"/>
+      <c r="A184" s="6"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="5"/>
+      <c r="A185" s="6"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="5"/>
+      <c r="A186" s="6"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="5"/>
+      <c r="A187" s="6"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="5"/>
+      <c r="A188" s="6"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="5"/>
+      <c r="A189" s="6"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="5"/>
+      <c r="A190" s="6"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="5"/>
+      <c r="A191" s="6"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="5"/>
+      <c r="A192" s="6"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="5"/>
+      <c r="A193" s="6"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="5"/>
+      <c r="A194" s="6"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="5"/>
+      <c r="A195" s="6"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="5"/>
+      <c r="A196" s="6"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="5"/>
+      <c r="A197" s="6"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="5"/>
+      <c r="A198" s="6"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="5"/>
+      <c r="A199" s="6"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="5"/>
+      <c r="A200" s="6"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="5"/>
+      <c r="A201" s="6"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="5"/>
+      <c r="A202" s="6"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="5"/>
+      <c r="A203" s="6"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="5"/>
+      <c r="A204" s="6"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="5"/>
+      <c r="A205" s="6"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="5"/>
+      <c r="A206" s="6"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="5"/>
+      <c r="A207" s="6"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="5"/>
+      <c r="A208" s="6"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="5"/>
+      <c r="A209" s="6"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="5"/>
+      <c r="A210" s="6"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="5"/>
+      <c r="A211" s="6"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="5"/>
+      <c r="A212" s="6"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="5"/>
+      <c r="A213" s="6"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="5"/>
+      <c r="A214" s="6"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="5"/>
+      <c r="A215" s="6"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="5"/>
+      <c r="A216" s="6"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="5"/>
+      <c r="A217" s="6"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="5"/>
+      <c r="A218" s="6"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="5"/>
+      <c r="A219" s="6"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="5"/>
+      <c r="A220" s="6"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="5"/>
+      <c r="A221" s="6"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="5"/>
+      <c r="A222" s="6"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="5"/>
+      <c r="A223" s="6"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="5"/>
+      <c r="A224" s="6"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="5"/>
+      <c r="A225" s="6"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="5"/>
+      <c r="A226" s="6"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="5"/>
+      <c r="A227" s="6"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="A228" s="5"/>
+      <c r="A228" s="6"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="5"/>
+      <c r="A229" s="6"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="A230" s="5"/>
+      <c r="A230" s="6"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="A231" s="5"/>
+      <c r="A231" s="6"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="A232" s="5"/>
+      <c r="A232" s="6"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="A233" s="5"/>
+      <c r="A233" s="6"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="A234" s="5"/>
+      <c r="A234" s="6"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="A235" s="5"/>
+      <c r="A235" s="6"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="A236" s="5"/>
+      <c r="A236" s="6"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="A237" s="5"/>
+      <c r="A237" s="6"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="A238" s="5"/>
+      <c r="A238" s="6"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="A239" s="5"/>
+      <c r="A239" s="6"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="A240" s="5"/>
+      <c r="A240" s="6"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="A241" s="5"/>
+      <c r="A241" s="6"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="A242" s="5"/>
+      <c r="A242" s="6"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="A243" s="5"/>
+      <c r="A243" s="6"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="A244" s="5"/>
+      <c r="A244" s="6"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="A245" s="5"/>
+      <c r="A245" s="6"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="A246" s="5"/>
+      <c r="A246" s="6"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="A247" s="5"/>
+      <c r="A247" s="6"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="A248" s="5"/>
+      <c r="A248" s="6"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="A249" s="5"/>
+      <c r="A249" s="6"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="A250" s="5"/>
+      <c r="A250" s="6"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="A251" s="5"/>
+      <c r="A251" s="6"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="A252" s="5"/>
+      <c r="A252" s="6"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="A253" s="5"/>
+      <c r="A253" s="6"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="A254" s="5"/>
+      <c r="A254" s="6"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="A255" s="5"/>
+      <c r="A255" s="6"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="A256" s="5"/>
+      <c r="A256" s="6"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="A257" s="5"/>
+      <c r="A257" s="6"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="A258" s="5"/>
+      <c r="A258" s="6"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="A259" s="5"/>
+      <c r="A259" s="6"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="A260" s="5"/>
+      <c r="A260" s="6"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="A261" s="5"/>
+      <c r="A261" s="6"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="A262" s="5"/>
+      <c r="A262" s="6"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="A263" s="5"/>
+      <c r="A263" s="6"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="A264" s="5"/>
+      <c r="A264" s="6"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="A265" s="5"/>
+      <c r="A265" s="6"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="A266" s="5"/>
+      <c r="A266" s="6"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="A267" s="5"/>
+      <c r="A267" s="6"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="A268" s="5"/>
+      <c r="A268" s="6"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="A269" s="5"/>
+      <c r="A269" s="6"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="A270" s="5"/>
+      <c r="A270" s="6"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="A271" s="5"/>
+      <c r="A271" s="6"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="A272" s="5"/>
+      <c r="A272" s="6"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="A273" s="5"/>
+      <c r="A273" s="6"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="A274" s="5"/>
+      <c r="A274" s="6"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="A275" s="5"/>
+      <c r="A275" s="6"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="A276" s="5"/>
+      <c r="A276" s="6"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="A277" s="5"/>
+      <c r="A277" s="6"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="A278" s="5"/>
+      <c r="A278" s="6"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="A279" s="5"/>
+      <c r="A279" s="6"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="A280" s="5"/>
+      <c r="A280" s="6"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="A281" s="5"/>
+      <c r="A281" s="6"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="A282" s="5"/>
+      <c r="A282" s="6"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="A283" s="5"/>
+      <c r="A283" s="6"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="A284" s="5"/>
+      <c r="A284" s="6"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="A285" s="5"/>
+      <c r="A285" s="6"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="A286" s="5"/>
+      <c r="A286" s="6"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="A287" s="5"/>
+      <c r="A287" s="6"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="A288" s="5"/>
+      <c r="A288" s="6"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="A289" s="5"/>
+      <c r="A289" s="6"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="A290" s="5"/>
+      <c r="A290" s="6"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="A291" s="5"/>
+      <c r="A291" s="6"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="A292" s="5"/>
+      <c r="A292" s="6"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="A293" s="5"/>
+      <c r="A293" s="6"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="A294" s="5"/>
+      <c r="A294" s="6"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="A295" s="5"/>
+      <c r="A295" s="6"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="A296" s="5"/>
+      <c r="A296" s="6"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="A297" s="5"/>
+      <c r="A297" s="6"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="A298" s="5"/>
+      <c r="A298" s="6"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="A299" s="5"/>
+      <c r="A299" s="6"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="A300" s="5"/>
+      <c r="A300" s="6"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="A301" s="5"/>
+      <c r="A301" s="6"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="A302" s="5"/>
+      <c r="A302" s="6"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="A303" s="5"/>
+      <c r="A303" s="6"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="A304" s="5"/>
+      <c r="A304" s="6"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="A305" s="5"/>
+      <c r="A305" s="6"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="A306" s="5"/>
+      <c r="A306" s="6"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="A307" s="5"/>
+      <c r="A307" s="6"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="A308" s="5"/>
+      <c r="A308" s="6"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="A309" s="5"/>
+      <c r="A309" s="6"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="A310" s="5"/>
+      <c r="A310" s="6"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="A311" s="5"/>
+      <c r="A311" s="6"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="A312" s="5"/>
+      <c r="A312" s="6"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="A313" s="5"/>
+      <c r="A313" s="6"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="A314" s="5"/>
+      <c r="A314" s="6"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="A315" s="5"/>
+      <c r="A315" s="6"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="A316" s="5"/>
+      <c r="A316" s="6"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="A317" s="5"/>
+      <c r="A317" s="6"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="A318" s="5"/>
+      <c r="A318" s="6"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="A319" s="5"/>
+      <c r="A319" s="6"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="A320" s="5"/>
+      <c r="A320" s="6"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="A321" s="5"/>
+      <c r="A321" s="6"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="A322" s="5"/>
+      <c r="A322" s="6"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="A323" s="5"/>
+      <c r="A323" s="6"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="A324" s="5"/>
+      <c r="A324" s="6"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="A325" s="5"/>
+      <c r="A325" s="6"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="A326" s="5"/>
+      <c r="A326" s="6"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="A327" s="5"/>
+      <c r="A327" s="6"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="A328" s="5"/>
+      <c r="A328" s="6"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="A329" s="5"/>
+      <c r="A329" s="6"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="A330" s="5"/>
+      <c r="A330" s="6"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="A331" s="5"/>
+      <c r="A331" s="6"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="A332" s="5"/>
+      <c r="A332" s="6"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="A333" s="5"/>
+      <c r="A333" s="6"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="A334" s="5"/>
+      <c r="A334" s="6"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="A335" s="5"/>
+      <c r="A335" s="6"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="A336" s="5"/>
+      <c r="A336" s="6"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="A337" s="5"/>
+      <c r="A337" s="6"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="A338" s="5"/>
+      <c r="A338" s="6"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="A339" s="5"/>
+      <c r="A339" s="6"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="A340" s="5"/>
+      <c r="A340" s="6"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="A341" s="5"/>
+      <c r="A341" s="6"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="A342" s="5"/>
+      <c r="A342" s="6"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="A343" s="5"/>
+      <c r="A343" s="6"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="A344" s="5"/>
+      <c r="A344" s="6"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="A345" s="5"/>
+      <c r="A345" s="6"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="A346" s="5"/>
+      <c r="A346" s="6"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="A347" s="5"/>
+      <c r="A347" s="6"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="A348" s="5"/>
+      <c r="A348" s="6"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="A349" s="5"/>
+      <c r="A349" s="6"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="A350" s="5"/>
+      <c r="A350" s="6"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="A351" s="5"/>
+      <c r="A351" s="6"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="A352" s="5"/>
+      <c r="A352" s="6"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="A353" s="5"/>
+      <c r="A353" s="6"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="A354" s="5"/>
+      <c r="A354" s="6"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="A355" s="5"/>
+      <c r="A355" s="6"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="A356" s="5"/>
+      <c r="A356" s="6"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="A357" s="5"/>
+      <c r="A357" s="6"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="A358" s="5"/>
+      <c r="A358" s="6"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="A359" s="5"/>
+      <c r="A359" s="6"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="A360" s="5"/>
+      <c r="A360" s="6"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="A361" s="5"/>
+      <c r="A361" s="6"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="A362" s="5"/>
+      <c r="A362" s="6"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="A363" s="5"/>
+      <c r="A363" s="6"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="A364" s="5"/>
+      <c r="A364" s="6"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="A365" s="5"/>
+      <c r="A365" s="6"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="A366" s="5"/>
+      <c r="A366" s="6"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="A367" s="5"/>
+      <c r="A367" s="6"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="A368" s="5"/>
+      <c r="A368" s="6"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="A369" s="5"/>
+      <c r="A369" s="6"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="A370" s="5"/>
+      <c r="A370" s="6"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="A371" s="5"/>
+      <c r="A371" s="6"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="A372" s="5"/>
+      <c r="A372" s="6"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="A373" s="5"/>
+      <c r="A373" s="6"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="A374" s="5"/>
+      <c r="A374" s="6"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="A375" s="5"/>
+      <c r="A375" s="6"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="A376" s="5"/>
+      <c r="A376" s="6"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="A377" s="5"/>
+      <c r="A377" s="6"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="A378" s="5"/>
+      <c r="A378" s="6"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="A379" s="5"/>
+      <c r="A379" s="6"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="A380" s="5"/>
+      <c r="A380" s="6"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="A381" s="5"/>
+      <c r="A381" s="6"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="A382" s="5"/>
+      <c r="A382" s="6"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="A383" s="5"/>
+      <c r="A383" s="6"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="A384" s="5"/>
+      <c r="A384" s="6"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="A385" s="5"/>
+      <c r="A385" s="6"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="A386" s="5"/>
+      <c r="A386" s="6"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="A387" s="5"/>
+      <c r="A387" s="6"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="A388" s="5"/>
+      <c r="A388" s="6"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="A389" s="5"/>
+      <c r="A389" s="6"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="A390" s="5"/>
+      <c r="A390" s="6"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="A391" s="5"/>
+      <c r="A391" s="6"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="A392" s="5"/>
+      <c r="A392" s="6"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="A393" s="5"/>
+      <c r="A393" s="6"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="A394" s="5"/>
+      <c r="A394" s="6"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="A395" s="5"/>
+      <c r="A395" s="6"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="A396" s="5"/>
+      <c r="A396" s="6"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="A397" s="5"/>
+      <c r="A397" s="6"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="A398" s="5"/>
+      <c r="A398" s="6"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="A399" s="5"/>
+      <c r="A399" s="6"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="A400" s="5"/>
+      <c r="A400" s="6"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="A401" s="5"/>
+      <c r="A401" s="6"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="A402" s="5"/>
+      <c r="A402" s="6"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="A403" s="5"/>
+      <c r="A403" s="6"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="A404" s="5"/>
+      <c r="A404" s="6"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="A405" s="5"/>
+      <c r="A405" s="6"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="A406" s="5"/>
+      <c r="A406" s="6"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="A407" s="5"/>
+      <c r="A407" s="6"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="A408" s="5"/>
+      <c r="A408" s="6"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="A409" s="5"/>
+      <c r="A409" s="6"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="A410" s="5"/>
+      <c r="A410" s="6"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="A411" s="5"/>
+      <c r="A411" s="6"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="A412" s="5"/>
+      <c r="A412" s="6"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="A413" s="5"/>
+      <c r="A413" s="6"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="A414" s="5"/>
+      <c r="A414" s="6"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="A415" s="5"/>
+      <c r="A415" s="6"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="A416" s="5"/>
+      <c r="A416" s="6"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="A417" s="5"/>
+      <c r="A417" s="6"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="A418" s="5"/>
+      <c r="A418" s="6"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="A419" s="5"/>
+      <c r="A419" s="6"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="A420" s="5"/>
+      <c r="A420" s="6"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="A421" s="5"/>
+      <c r="A421" s="6"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="A422" s="5"/>
+      <c r="A422" s="6"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="A423" s="5"/>
+      <c r="A423" s="6"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="A424" s="5"/>
+      <c r="A424" s="6"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="A425" s="5"/>
+      <c r="A425" s="6"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="A426" s="5"/>
+      <c r="A426" s="6"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="A427" s="5"/>
+      <c r="A427" s="6"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="A428" s="5"/>
+      <c r="A428" s="6"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="A429" s="5"/>
+      <c r="A429" s="6"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="A430" s="5"/>
+      <c r="A430" s="6"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="A431" s="5"/>
+      <c r="A431" s="6"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="A432" s="5"/>
+      <c r="A432" s="6"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="A433" s="5"/>
+      <c r="A433" s="6"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="A434" s="5"/>
+      <c r="A434" s="6"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="A435" s="5"/>
+      <c r="A435" s="6"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="A436" s="5"/>
+      <c r="A436" s="6"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="A437" s="5"/>
+      <c r="A437" s="6"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="A438" s="5"/>
+      <c r="A438" s="6"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="A439" s="5"/>
+      <c r="A439" s="6"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="A440" s="5"/>
+      <c r="A440" s="6"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="A441" s="5"/>
+      <c r="A441" s="6"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="A442" s="5"/>
+      <c r="A442" s="6"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="A443" s="5"/>
+      <c r="A443" s="6"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="A444" s="5"/>
+      <c r="A444" s="6"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="A445" s="5"/>
+      <c r="A445" s="6"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="A446" s="5"/>
+      <c r="A446" s="6"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="A447" s="5"/>
+      <c r="A447" s="6"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="A448" s="5"/>
+      <c r="A448" s="6"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="A449" s="5"/>
+      <c r="A449" s="6"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="A450" s="5"/>
+      <c r="A450" s="6"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="A451" s="5"/>
+      <c r="A451" s="6"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="A452" s="5"/>
+      <c r="A452" s="6"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="A453" s="5"/>
+      <c r="A453" s="6"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="A454" s="5"/>
+      <c r="A454" s="6"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="A455" s="5"/>
+      <c r="A455" s="6"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="A456" s="5"/>
+      <c r="A456" s="6"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="A457" s="5"/>
+      <c r="A457" s="6"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="A458" s="5"/>
+      <c r="A458" s="6"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="A459" s="5"/>
+      <c r="A459" s="6"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="A460" s="5"/>
+      <c r="A460" s="6"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="A461" s="5"/>
+      <c r="A461" s="6"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="A462" s="5"/>
+      <c r="A462" s="6"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="A463" s="5"/>
+      <c r="A463" s="6"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="A464" s="5"/>
+      <c r="A464" s="6"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="A465" s="5"/>
+      <c r="A465" s="6"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="A466" s="5"/>
+      <c r="A466" s="6"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="A467" s="5"/>
+      <c r="A467" s="6"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="A468" s="5"/>
+      <c r="A468" s="6"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="A469" s="5"/>
+      <c r="A469" s="6"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="A470" s="5"/>
+      <c r="A470" s="6"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="A471" s="5"/>
+      <c r="A471" s="6"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="A472" s="5"/>
+      <c r="A472" s="6"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="A473" s="5"/>
+      <c r="A473" s="6"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="A474" s="5"/>
+      <c r="A474" s="6"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="A475" s="5"/>
+      <c r="A475" s="6"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="A476" s="5"/>
+      <c r="A476" s="6"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="A477" s="5"/>
+      <c r="A477" s="6"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="A478" s="5"/>
+      <c r="A478" s="6"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="A479" s="5"/>
+      <c r="A479" s="6"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="A480" s="5"/>
+      <c r="A480" s="6"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="A481" s="5"/>
+      <c r="A481" s="6"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="A482" s="5"/>
+      <c r="A482" s="6"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="A483" s="5"/>
+      <c r="A483" s="6"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="A484" s="5"/>
+      <c r="A484" s="6"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="A485" s="5"/>
+      <c r="A485" s="6"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="A486" s="5"/>
+      <c r="A486" s="6"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="A487" s="5"/>
+      <c r="A487" s="6"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="A488" s="5"/>
+      <c r="A488" s="6"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="A489" s="5"/>
+      <c r="A489" s="6"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="A490" s="5"/>
+      <c r="A490" s="6"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="A491" s="5"/>
+      <c r="A491" s="6"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="A492" s="5"/>
+      <c r="A492" s="6"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="A493" s="5"/>
+      <c r="A493" s="6"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="A494" s="5"/>
+      <c r="A494" s="6"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="A495" s="5"/>
+      <c r="A495" s="6"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="A496" s="5"/>
+      <c r="A496" s="6"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="A497" s="5"/>
+      <c r="A497" s="6"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="A498" s="5"/>
+      <c r="A498" s="6"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="A499" s="5"/>
+      <c r="A499" s="6"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="A500" s="5"/>
+      <c r="A500" s="6"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="A501" s="5"/>
+      <c r="A501" s="6"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="A502" s="5"/>
+      <c r="A502" s="6"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="A503" s="5"/>
+      <c r="A503" s="6"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="A504" s="5"/>
+      <c r="A504" s="6"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="A505" s="5"/>
+      <c r="A505" s="6"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="A506" s="5"/>
+      <c r="A506" s="6"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="A507" s="5"/>
+      <c r="A507" s="6"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="A508" s="5"/>
+      <c r="A508" s="6"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="A509" s="5"/>
+      <c r="A509" s="6"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="A510" s="5"/>
+      <c r="A510" s="6"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="A511" s="5"/>
+      <c r="A511" s="6"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="A512" s="5"/>
+      <c r="A512" s="6"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="A513" s="5"/>
+      <c r="A513" s="6"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="A514" s="5"/>
+      <c r="A514" s="6"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="A515" s="5"/>
+      <c r="A515" s="6"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="A516" s="5"/>
+      <c r="A516" s="6"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="A517" s="5"/>
+      <c r="A517" s="6"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="A518" s="5"/>
+      <c r="A518" s="6"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="A519" s="5"/>
+      <c r="A519" s="6"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="A520" s="5"/>
+      <c r="A520" s="6"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="A521" s="5"/>
+      <c r="A521" s="6"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="A522" s="5"/>
+      <c r="A522" s="6"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="A523" s="5"/>
+      <c r="A523" s="6"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="A524" s="5"/>
+      <c r="A524" s="6"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="A525" s="5"/>
+      <c r="A525" s="6"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="A526" s="5"/>
+      <c r="A526" s="6"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="A527" s="5"/>
+      <c r="A527" s="6"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="A528" s="5"/>
+      <c r="A528" s="6"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="A529" s="5"/>
+      <c r="A529" s="6"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="A530" s="5"/>
+      <c r="A530" s="6"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="A531" s="5"/>
+      <c r="A531" s="6"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="A532" s="5"/>
+      <c r="A532" s="6"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="A533" s="5"/>
+      <c r="A533" s="6"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="A534" s="5"/>
+      <c r="A534" s="6"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="A535" s="5"/>
+      <c r="A535" s="6"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="A536" s="5"/>
+      <c r="A536" s="6"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="A537" s="5"/>
+      <c r="A537" s="6"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="A538" s="5"/>
+      <c r="A538" s="6"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="A539" s="5"/>
+      <c r="A539" s="6"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="A540" s="5"/>
+      <c r="A540" s="6"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="A541" s="5"/>
+      <c r="A541" s="6"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="A542" s="5"/>
+      <c r="A542" s="6"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="A543" s="5"/>
+      <c r="A543" s="6"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="A544" s="5"/>
+      <c r="A544" s="6"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="A545" s="5"/>
+      <c r="A545" s="6"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="A546" s="5"/>
+      <c r="A546" s="6"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="A547" s="5"/>
+      <c r="A547" s="6"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="A548" s="5"/>
+      <c r="A548" s="6"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="A549" s="5"/>
+      <c r="A549" s="6"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="A550" s="5"/>
+      <c r="A550" s="6"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="A551" s="5"/>
+      <c r="A551" s="6"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="A552" s="5"/>
+      <c r="A552" s="6"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="A553" s="5"/>
+      <c r="A553" s="6"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="A554" s="5"/>
+      <c r="A554" s="6"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="A555" s="5"/>
+      <c r="A555" s="6"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="A556" s="5"/>
+      <c r="A556" s="6"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="A557" s="5"/>
+      <c r="A557" s="6"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="A558" s="5"/>
+      <c r="A558" s="6"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="A559" s="5"/>
+      <c r="A559" s="6"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="A560" s="5"/>
+      <c r="A560" s="6"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="A561" s="5"/>
+      <c r="A561" s="6"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="A562" s="5"/>
+      <c r="A562" s="6"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="A563" s="5"/>
+      <c r="A563" s="6"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="A564" s="5"/>
+      <c r="A564" s="6"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="A565" s="5"/>
+      <c r="A565" s="6"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="A566" s="5"/>
+      <c r="A566" s="6"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="A567" s="5"/>
+      <c r="A567" s="6"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="A568" s="5"/>
+      <c r="A568" s="6"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="A569" s="5"/>
+      <c r="A569" s="6"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="A570" s="5"/>
+      <c r="A570" s="6"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="A571" s="5"/>
+      <c r="A571" s="6"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="A572" s="5"/>
+      <c r="A572" s="6"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="A573" s="5"/>
+      <c r="A573" s="6"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="A574" s="5"/>
+      <c r="A574" s="6"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="A575" s="5"/>
+      <c r="A575" s="6"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="A576" s="5"/>
+      <c r="A576" s="6"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="A577" s="5"/>
+      <c r="A577" s="6"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="A578" s="5"/>
+      <c r="A578" s="6"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="A579" s="5"/>
+      <c r="A579" s="6"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="A580" s="5"/>
+      <c r="A580" s="6"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="A581" s="5"/>
+      <c r="A581" s="6"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="A582" s="5"/>
+      <c r="A582" s="6"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="A583" s="5"/>
+      <c r="A583" s="6"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="A584" s="5"/>
+      <c r="A584" s="6"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="A585" s="5"/>
+      <c r="A585" s="6"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="A586" s="5"/>
+      <c r="A586" s="6"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="A587" s="5"/>
+      <c r="A587" s="6"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="A588" s="5"/>
+      <c r="A588" s="6"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="A589" s="5"/>
+      <c r="A589" s="6"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="A590" s="5"/>
+      <c r="A590" s="6"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="A591" s="5"/>
+      <c r="A591" s="6"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="A592" s="5"/>
+      <c r="A592" s="6"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="A593" s="5"/>
+      <c r="A593" s="6"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="A594" s="5"/>
+      <c r="A594" s="6"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="A595" s="5"/>
+      <c r="A595" s="6"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="A596" s="5"/>
+      <c r="A596" s="6"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="A597" s="5"/>
+      <c r="A597" s="6"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="A598" s="5"/>
+      <c r="A598" s="6"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="A599" s="5"/>
+      <c r="A599" s="6"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="A600" s="5"/>
+      <c r="A600" s="6"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="A601" s="5"/>
+      <c r="A601" s="6"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="A602" s="5"/>
+      <c r="A602" s="6"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="A603" s="5"/>
+      <c r="A603" s="6"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="A604" s="5"/>
+      <c r="A604" s="6"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="A605" s="5"/>
+      <c r="A605" s="6"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="A606" s="5"/>
+      <c r="A606" s="6"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="A607" s="5"/>
+      <c r="A607" s="6"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="A608" s="5"/>
+      <c r="A608" s="6"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="A609" s="5"/>
+      <c r="A609" s="6"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="A610" s="5"/>
+      <c r="A610" s="6"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="A611" s="5"/>
+      <c r="A611" s="6"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="A612" s="5"/>
+      <c r="A612" s="6"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="A613" s="5"/>
+      <c r="A613" s="6"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="A614" s="5"/>
+      <c r="A614" s="6"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="A615" s="5"/>
+      <c r="A615" s="6"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="A616" s="5"/>
+      <c r="A616" s="6"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="A617" s="5"/>
+      <c r="A617" s="6"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="A618" s="5"/>
+      <c r="A618" s="6"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="A619" s="5"/>
+      <c r="A619" s="6"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="A620" s="5"/>
+      <c r="A620" s="6"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="A621" s="5"/>
+      <c r="A621" s="6"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="A622" s="5"/>
+      <c r="A622" s="6"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="A623" s="5"/>
+      <c r="A623" s="6"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="A624" s="5"/>
+      <c r="A624" s="6"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="A625" s="5"/>
+      <c r="A625" s="6"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="A626" s="5"/>
+      <c r="A626" s="6"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="A627" s="5"/>
+      <c r="A627" s="6"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="A628" s="5"/>
+      <c r="A628" s="6"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="A629" s="5"/>
+      <c r="A629" s="6"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="A630" s="5"/>
+      <c r="A630" s="6"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="A631" s="5"/>
+      <c r="A631" s="6"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="A632" s="5"/>
+      <c r="A632" s="6"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="A633" s="5"/>
+      <c r="A633" s="6"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="A634" s="5"/>
+      <c r="A634" s="6"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="A635" s="5"/>
+      <c r="A635" s="6"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="A636" s="5"/>
+      <c r="A636" s="6"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="A637" s="5"/>
+      <c r="A637" s="6"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="A638" s="5"/>
+      <c r="A638" s="6"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="A639" s="5"/>
+      <c r="A639" s="6"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="A640" s="5"/>
+      <c r="A640" s="6"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="A641" s="5"/>
+      <c r="A641" s="6"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="A642" s="5"/>
+      <c r="A642" s="6"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="A643" s="5"/>
+      <c r="A643" s="6"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="A644" s="5"/>
+      <c r="A644" s="6"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="A645" s="5"/>
+      <c r="A645" s="6"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="A646" s="5"/>
+      <c r="A646" s="6"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="A647" s="5"/>
+      <c r="A647" s="6"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="A648" s="5"/>
+      <c r="A648" s="6"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="A649" s="5"/>
+      <c r="A649" s="6"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="A650" s="5"/>
+      <c r="A650" s="6"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="A651" s="5"/>
+      <c r="A651" s="6"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="A652" s="5"/>
+      <c r="A652" s="6"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="A653" s="5"/>
+      <c r="A653" s="6"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="A654" s="5"/>
+      <c r="A654" s="6"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="A655" s="5"/>
+      <c r="A655" s="6"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="A656" s="5"/>
+      <c r="A656" s="6"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="A657" s="5"/>
+      <c r="A657" s="6"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="A658" s="5"/>
+      <c r="A658" s="6"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="A659" s="5"/>
+      <c r="A659" s="6"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="A660" s="5"/>
+      <c r="A660" s="6"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="A661" s="5"/>
+      <c r="A661" s="6"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="A662" s="5"/>
+      <c r="A662" s="6"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="A663" s="5"/>
+      <c r="A663" s="6"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="A664" s="5"/>
+      <c r="A664" s="6"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="A665" s="5"/>
+      <c r="A665" s="6"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="A666" s="5"/>
+      <c r="A666" s="6"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="A667" s="5"/>
+      <c r="A667" s="6"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="A668" s="5"/>
+      <c r="A668" s="6"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="A669" s="5"/>
+      <c r="A669" s="6"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="A670" s="5"/>
+      <c r="A670" s="6"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="A671" s="5"/>
+      <c r="A671" s="6"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="A672" s="5"/>
+      <c r="A672" s="6"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="A673" s="5"/>
+      <c r="A673" s="6"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="A674" s="5"/>
+      <c r="A674" s="6"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="A675" s="5"/>
+      <c r="A675" s="6"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="A676" s="5"/>
+      <c r="A676" s="6"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="A677" s="5"/>
+      <c r="A677" s="6"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="A678" s="5"/>
+      <c r="A678" s="6"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="A679" s="5"/>
+      <c r="A679" s="6"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="A680" s="5"/>
+      <c r="A680" s="6"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="A681" s="5"/>
+      <c r="A681" s="6"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="A682" s="5"/>
+      <c r="A682" s="6"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="A683" s="5"/>
+      <c r="A683" s="6"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="A684" s="5"/>
+      <c r="A684" s="6"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="A685" s="5"/>
+      <c r="A685" s="6"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="A686" s="5"/>
+      <c r="A686" s="6"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="A687" s="5"/>
+      <c r="A687" s="6"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="A688" s="5"/>
+      <c r="A688" s="6"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="A689" s="5"/>
+      <c r="A689" s="6"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="A690" s="5"/>
+      <c r="A690" s="6"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="A691" s="5"/>
+      <c r="A691" s="6"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="A692" s="5"/>
+      <c r="A692" s="6"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="A693" s="5"/>
+      <c r="A693" s="6"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="A694" s="5"/>
+      <c r="A694" s="6"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="A695" s="5"/>
+      <c r="A695" s="6"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="A696" s="5"/>
+      <c r="A696" s="6"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="A697" s="5"/>
+      <c r="A697" s="6"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="A698" s="5"/>
+      <c r="A698" s="6"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="A699" s="5"/>
+      <c r="A699" s="6"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="A700" s="5"/>
+      <c r="A700" s="6"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="A701" s="5"/>
+      <c r="A701" s="6"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="A702" s="5"/>
+      <c r="A702" s="6"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="A703" s="5"/>
+      <c r="A703" s="6"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="A704" s="5"/>
+      <c r="A704" s="6"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="A705" s="5"/>
+      <c r="A705" s="6"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="A706" s="5"/>
+      <c r="A706" s="6"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="A707" s="5"/>
+      <c r="A707" s="6"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="A708" s="5"/>
+      <c r="A708" s="6"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="A709" s="5"/>
+      <c r="A709" s="6"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="A710" s="5"/>
+      <c r="A710" s="6"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="A711" s="5"/>
+      <c r="A711" s="6"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="A712" s="5"/>
+      <c r="A712" s="6"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="A713" s="5"/>
+      <c r="A713" s="6"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="A714" s="5"/>
+      <c r="A714" s="6"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="A715" s="5"/>
+      <c r="A715" s="6"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="A716" s="5"/>
+      <c r="A716" s="6"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="A717" s="5"/>
+      <c r="A717" s="6"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="A718" s="5"/>
+      <c r="A718" s="6"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="A719" s="5"/>
+      <c r="A719" s="6"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="A720" s="5"/>
+      <c r="A720" s="6"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="A721" s="5"/>
+      <c r="A721" s="6"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="A722" s="5"/>
+      <c r="A722" s="6"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="A723" s="5"/>
+      <c r="A723" s="6"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="A724" s="5"/>
+      <c r="A724" s="6"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="A725" s="5"/>
+      <c r="A725" s="6"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="A726" s="5"/>
+      <c r="A726" s="6"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="A727" s="5"/>
+      <c r="A727" s="6"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="A728" s="5"/>
+      <c r="A728" s="6"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="A729" s="5"/>
+      <c r="A729" s="6"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="A730" s="5"/>
+      <c r="A730" s="6"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="A731" s="5"/>
+      <c r="A731" s="6"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="A732" s="5"/>
+      <c r="A732" s="6"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="A733" s="5"/>
+      <c r="A733" s="6"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="A734" s="5"/>
+      <c r="A734" s="6"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="A735" s="5"/>
+      <c r="A735" s="6"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="A736" s="5"/>
+      <c r="A736" s="6"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="A737" s="5"/>
+      <c r="A737" s="6"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="A738" s="5"/>
+      <c r="A738" s="6"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="A739" s="5"/>
+      <c r="A739" s="6"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="A740" s="5"/>
+      <c r="A740" s="6"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="A741" s="5"/>
+      <c r="A741" s="6"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="A742" s="5"/>
+      <c r="A742" s="6"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="A743" s="5"/>
+      <c r="A743" s="6"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="A744" s="5"/>
+      <c r="A744" s="6"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="A745" s="5"/>
+      <c r="A745" s="6"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="A746" s="5"/>
+      <c r="A746" s="6"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="A747" s="5"/>
+      <c r="A747" s="6"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="A748" s="5"/>
+      <c r="A748" s="6"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="A749" s="5"/>
+      <c r="A749" s="6"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="A750" s="5"/>
+      <c r="A750" s="6"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="A751" s="5"/>
+      <c r="A751" s="6"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="A752" s="5"/>
+      <c r="A752" s="6"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="A753" s="5"/>
+      <c r="A753" s="6"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="A754" s="5"/>
+      <c r="A754" s="6"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="A755" s="5"/>
+      <c r="A755" s="6"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="A756" s="5"/>
+      <c r="A756" s="6"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="A757" s="5"/>
+      <c r="A757" s="6"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="A758" s="5"/>
+      <c r="A758" s="6"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="A759" s="5"/>
+      <c r="A759" s="6"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="A760" s="5"/>
+      <c r="A760" s="6"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="A761" s="5"/>
+      <c r="A761" s="6"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="A762" s="5"/>
+      <c r="A762" s="6"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="A763" s="5"/>
+      <c r="A763" s="6"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="A764" s="5"/>
+      <c r="A764" s="6"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="A765" s="5"/>
+      <c r="A765" s="6"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="A766" s="5"/>
+      <c r="A766" s="6"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="A767" s="5"/>
+      <c r="A767" s="6"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="A768" s="5"/>
+      <c r="A768" s="6"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="A769" s="5"/>
+      <c r="A769" s="6"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="A770" s="5"/>
+      <c r="A770" s="6"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="A771" s="5"/>
+      <c r="A771" s="6"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="A772" s="5"/>
+      <c r="A772" s="6"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="A773" s="5"/>
+      <c r="A773" s="6"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="A774" s="5"/>
+      <c r="A774" s="6"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="A775" s="5"/>
+      <c r="A775" s="6"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="A776" s="5"/>
+      <c r="A776" s="6"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="A777" s="5"/>
+      <c r="A777" s="6"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="A778" s="5"/>
+      <c r="A778" s="6"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="A779" s="5"/>
+      <c r="A779" s="6"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="A780" s="5"/>
+      <c r="A780" s="6"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="A781" s="5"/>
+      <c r="A781" s="6"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="A782" s="5"/>
+      <c r="A782" s="6"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="A783" s="5"/>
+      <c r="A783" s="6"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="A784" s="5"/>
+      <c r="A784" s="6"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="A785" s="5"/>
+      <c r="A785" s="6"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="A786" s="5"/>
+      <c r="A786" s="6"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="A787" s="5"/>
+      <c r="A787" s="6"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="A788" s="5"/>
+      <c r="A788" s="6"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="A789" s="5"/>
+      <c r="A789" s="6"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="A790" s="5"/>
+      <c r="A790" s="6"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="A791" s="5"/>
+      <c r="A791" s="6"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="A792" s="5"/>
+      <c r="A792" s="6"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="A793" s="5"/>
+      <c r="A793" s="6"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="A794" s="5"/>
+      <c r="A794" s="6"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="A795" s="5"/>
+      <c r="A795" s="6"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="A796" s="5"/>
+      <c r="A796" s="6"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="A797" s="5"/>
+      <c r="A797" s="6"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="A798" s="5"/>
+      <c r="A798" s="6"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="A799" s="5"/>
+      <c r="A799" s="6"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="A800" s="5"/>
+      <c r="A800" s="6"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="A801" s="5"/>
+      <c r="A801" s="6"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="A802" s="5"/>
+      <c r="A802" s="6"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="A803" s="5"/>
+      <c r="A803" s="6"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="A804" s="5"/>
+      <c r="A804" s="6"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="A805" s="5"/>
+      <c r="A805" s="6"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="A806" s="5"/>
+      <c r="A806" s="6"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="A807" s="5"/>
+      <c r="A807" s="6"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="A808" s="5"/>
+      <c r="A808" s="6"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="A809" s="5"/>
+      <c r="A809" s="6"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="A810" s="5"/>
+      <c r="A810" s="6"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="A811" s="5"/>
+      <c r="A811" s="6"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="A812" s="5"/>
+      <c r="A812" s="6"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="A813" s="5"/>
+      <c r="A813" s="6"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="A814" s="5"/>
+      <c r="A814" s="6"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="A815" s="5"/>
+      <c r="A815" s="6"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="A816" s="5"/>
+      <c r="A816" s="6"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="A817" s="5"/>
+      <c r="A817" s="6"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="A818" s="5"/>
+      <c r="A818" s="6"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="A819" s="5"/>
+      <c r="A819" s="6"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="A820" s="5"/>
+      <c r="A820" s="6"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="A821" s="5"/>
+      <c r="A821" s="6"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="A822" s="5"/>
+      <c r="A822" s="6"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="A823" s="5"/>
+      <c r="A823" s="6"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="A824" s="5"/>
+      <c r="A824" s="6"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="A825" s="5"/>
+      <c r="A825" s="6"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="A826" s="5"/>
+      <c r="A826" s="6"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="A827" s="5"/>
+      <c r="A827" s="6"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="A828" s="5"/>
+      <c r="A828" s="6"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="A829" s="5"/>
+      <c r="A829" s="6"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="A830" s="5"/>
+      <c r="A830" s="6"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="A831" s="5"/>
+      <c r="A831" s="6"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="A832" s="5"/>
+      <c r="A832" s="6"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="A833" s="5"/>
+      <c r="A833" s="6"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="A834" s="5"/>
+      <c r="A834" s="6"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="A835" s="5"/>
+      <c r="A835" s="6"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="A836" s="5"/>
+      <c r="A836" s="6"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="A837" s="5"/>
+      <c r="A837" s="6"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="A838" s="5"/>
+      <c r="A838" s="6"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="A839" s="5"/>
+      <c r="A839" s="6"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="A840" s="5"/>
+      <c r="A840" s="6"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="A841" s="5"/>
+      <c r="A841" s="6"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="A842" s="5"/>
+      <c r="A842" s="6"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="A843" s="5"/>
+      <c r="A843" s="6"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="A844" s="5"/>
+      <c r="A844" s="6"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="A845" s="5"/>
+      <c r="A845" s="6"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="A846" s="5"/>
+      <c r="A846" s="6"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="A847" s="5"/>
+      <c r="A847" s="6"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="A848" s="5"/>
+      <c r="A848" s="6"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="A849" s="5"/>
+      <c r="A849" s="6"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="A850" s="5"/>
+      <c r="A850" s="6"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="A851" s="5"/>
+      <c r="A851" s="6"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="A852" s="5"/>
+      <c r="A852" s="6"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="A853" s="5"/>
+      <c r="A853" s="6"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="A854" s="5"/>
+      <c r="A854" s="6"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="A855" s="5"/>
+      <c r="A855" s="6"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="A856" s="5"/>
+      <c r="A856" s="6"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="A857" s="5"/>
+      <c r="A857" s="6"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="A858" s="5"/>
+      <c r="A858" s="6"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="A859" s="5"/>
+      <c r="A859" s="6"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="A860" s="5"/>
+      <c r="A860" s="6"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="A861" s="5"/>
+      <c r="A861" s="6"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="A862" s="5"/>
+      <c r="A862" s="6"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="A863" s="5"/>
+      <c r="A863" s="6"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="A864" s="5"/>
+      <c r="A864" s="6"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="A865" s="5"/>
+      <c r="A865" s="6"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="A866" s="5"/>
+      <c r="A866" s="6"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="A867" s="5"/>
+      <c r="A867" s="6"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="A868" s="5"/>
+      <c r="A868" s="6"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="A869" s="5"/>
+      <c r="A869" s="6"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="A870" s="5"/>
+      <c r="A870" s="6"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="A871" s="5"/>
+      <c r="A871" s="6"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="A872" s="5"/>
+      <c r="A872" s="6"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="A873" s="5"/>
+      <c r="A873" s="6"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="A874" s="5"/>
+      <c r="A874" s="6"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="A875" s="5"/>
+      <c r="A875" s="6"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="A876" s="5"/>
+      <c r="A876" s="6"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="A877" s="5"/>
+      <c r="A877" s="6"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="A878" s="5"/>
+      <c r="A878" s="6"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="A879" s="5"/>
+      <c r="A879" s="6"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="A880" s="5"/>
+      <c r="A880" s="6"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="A881" s="5"/>
+      <c r="A881" s="6"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="A882" s="5"/>
+      <c r="A882" s="6"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="A883" s="5"/>
+      <c r="A883" s="6"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="A884" s="5"/>
+      <c r="A884" s="6"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="A885" s="5"/>
+      <c r="A885" s="6"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="A886" s="5"/>
+      <c r="A886" s="6"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="A887" s="5"/>
+      <c r="A887" s="6"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="A888" s="5"/>
+      <c r="A888" s="6"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="A889" s="5"/>
+      <c r="A889" s="6"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="A890" s="5"/>
+      <c r="A890" s="6"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="A891" s="5"/>
+      <c r="A891" s="6"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="A892" s="5"/>
+      <c r="A892" s="6"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="A893" s="5"/>
+      <c r="A893" s="6"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="A894" s="5"/>
+      <c r="A894" s="6"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="A895" s="5"/>
+      <c r="A895" s="6"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="A896" s="5"/>
+      <c r="A896" s="6"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="A897" s="5"/>
+      <c r="A897" s="6"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="A898" s="5"/>
+      <c r="A898" s="6"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="A899" s="5"/>
+      <c r="A899" s="6"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="A900" s="5"/>
+      <c r="A900" s="6"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="A901" s="5"/>
+      <c r="A901" s="6"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="A902" s="5"/>
+      <c r="A902" s="6"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="A903" s="5"/>
+      <c r="A903" s="6"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="A904" s="5"/>
+      <c r="A904" s="6"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="A905" s="5"/>
+      <c r="A905" s="6"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="A906" s="5"/>
+      <c r="A906" s="6"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="A907" s="5"/>
+      <c r="A907" s="6"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="A908" s="5"/>
+      <c r="A908" s="6"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="A909" s="5"/>
+      <c r="A909" s="6"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="A910" s="5"/>
+      <c r="A910" s="6"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="A911" s="5"/>
+      <c r="A911" s="6"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="A912" s="5"/>
+      <c r="A912" s="6"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="A913" s="5"/>
+      <c r="A913" s="6"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="A914" s="5"/>
+      <c r="A914" s="6"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="A915" s="5"/>
+      <c r="A915" s="6"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="A916" s="5"/>
+      <c r="A916" s="6"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="A917" s="5"/>
+      <c r="A917" s="6"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="A918" s="5"/>
+      <c r="A918" s="6"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="A919" s="5"/>
+      <c r="A919" s="6"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="A920" s="5"/>
+      <c r="A920" s="6"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="A921" s="5"/>
+      <c r="A921" s="6"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="A922" s="5"/>
+      <c r="A922" s="6"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="A923" s="5"/>
+      <c r="A923" s="6"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="A924" s="5"/>
+      <c r="A924" s="6"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="A925" s="5"/>
+      <c r="A925" s="6"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="A926" s="5"/>
+      <c r="A926" s="6"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="A927" s="5"/>
+      <c r="A927" s="6"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="A928" s="5"/>
+      <c r="A928" s="6"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="A929" s="5"/>
+      <c r="A929" s="6"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="A930" s="5"/>
+      <c r="A930" s="6"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="A931" s="5"/>
+      <c r="A931" s="6"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="A932" s="5"/>
+      <c r="A932" s="6"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="A933" s="5"/>
+      <c r="A933" s="6"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="A934" s="5"/>
+      <c r="A934" s="6"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="A935" s="5"/>
+      <c r="A935" s="6"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="A936" s="5"/>
+      <c r="A936" s="6"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="A937" s="5"/>
+      <c r="A937" s="6"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="A938" s="5"/>
+      <c r="A938" s="6"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="A939" s="5"/>
+      <c r="A939" s="6"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="A940" s="5"/>
+      <c r="A940" s="6"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="A941" s="5"/>
+      <c r="A941" s="6"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="A942" s="5"/>
+      <c r="A942" s="6"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="A943" s="5"/>
+      <c r="A943" s="6"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="A944" s="5"/>
+      <c r="A944" s="6"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="A945" s="5"/>
+      <c r="A945" s="6"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="A946" s="5"/>
+      <c r="A946" s="6"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="A947" s="5"/>
+      <c r="A947" s="6"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="A948" s="5"/>
+      <c r="A948" s="6"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="A949" s="5"/>
+      <c r="A949" s="6"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="A950" s="5"/>
+      <c r="A950" s="6"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="A951" s="5"/>
+      <c r="A951" s="6"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="A952" s="5"/>
+      <c r="A952" s="6"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="A953" s="5"/>
+      <c r="A953" s="6"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="A954" s="5"/>
+      <c r="A954" s="6"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="A955" s="5"/>
+      <c r="A955" s="6"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="A956" s="5"/>
+      <c r="A956" s="6"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="A957" s="5"/>
+      <c r="A957" s="6"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="A958" s="5"/>
+      <c r="A958" s="6"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="A959" s="5"/>
+      <c r="A959" s="6"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="A960" s="5"/>
+      <c r="A960" s="6"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="A961" s="5"/>
+      <c r="A961" s="6"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="A962" s="5"/>
+      <c r="A962" s="6"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="A963" s="5"/>
+      <c r="A963" s="6"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="A964" s="5"/>
+      <c r="A964" s="6"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="A965" s="5"/>
+      <c r="A965" s="6"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="A966" s="5"/>
+      <c r="A966" s="6"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="A967" s="5"/>
+      <c r="A967" s="6"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="A968" s="5"/>
+      <c r="A968" s="6"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="A969" s="5"/>
+      <c r="A969" s="6"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="A970" s="5"/>
+      <c r="A970" s="6"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="A971" s="5"/>
+      <c r="A971" s="6"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="A972" s="5"/>
+      <c r="A972" s="6"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="A973" s="5"/>
+      <c r="A973" s="6"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="A974" s="5"/>
+      <c r="A974" s="6"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="A975" s="5"/>
+      <c r="A975" s="6"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="A976" s="5"/>
+      <c r="A976" s="6"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="A977" s="5"/>
+      <c r="A977" s="6"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="A978" s="5"/>
+      <c r="A978" s="6"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="A979" s="5"/>
+      <c r="A979" s="6"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="A980" s="5"/>
+      <c r="A980" s="6"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="A981" s="5"/>
+      <c r="A981" s="6"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="A982" s="5"/>
+      <c r="A982" s="6"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="A983" s="5"/>
+      <c r="A983" s="6"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="A984" s="5"/>
+      <c r="A984" s="6"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="A985" s="5"/>
+      <c r="A985" s="6"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="A986" s="5"/>
+      <c r="A986" s="6"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="A987" s="5"/>
+      <c r="A987" s="6"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="A988" s="5"/>
+      <c r="A988" s="6"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
-      <c r="A989" s="5"/>
+      <c r="A989" s="6"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
-      <c r="A990" s="5"/>
+      <c r="A990" s="6"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
-      <c r="A991" s="5"/>
+      <c r="A991" s="6"/>
     </row>
     <row r="992" ht="15.75" customHeight="1">
-      <c r="A992" s="5"/>
+      <c r="A992" s="6"/>
     </row>
     <row r="993" ht="15.75" customHeight="1">
-      <c r="A993" s="5"/>
+      <c r="A993" s="6"/>
     </row>
     <row r="994" ht="15.75" customHeight="1">
-      <c r="A994" s="5"/>
+      <c r="A994" s="6"/>
     </row>
     <row r="995" ht="15.75" customHeight="1">
-      <c r="A995" s="5"/>
+      <c r="A995" s="6"/>
     </row>
     <row r="996" ht="15.75" customHeight="1">
-      <c r="A996" s="5"/>
+      <c r="A996" s="6"/>
     </row>
     <row r="997" ht="15.75" customHeight="1">
-      <c r="A997" s="5"/>
+      <c r="A997" s="6"/>
     </row>
     <row r="998" ht="15.75" customHeight="1">
-      <c r="A998" s="5"/>
+      <c r="A998" s="6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4249,48 +4260,48 @@
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="8"/>
+      <c r="A8" s="9"/>
     </row>
     <row r="9">
-      <c r="A9" s="8"/>
+      <c r="A9" s="9"/>
     </row>
     <row r="10">
-      <c r="A10" s="8"/>
+      <c r="A10" s="9"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
